--- a/VokabelListe.xlsx
+++ b/VokabelListe.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/[C] Windows 10 1.hidden/Users/jonaspenner/source/repos/WPFGehirnJogging/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="23256" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -18,9 +13,6 @@
   </sheets>
   <calcPr calcId="124519" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -29,37 +21,320 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
-  <si>
-    <t>auto</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schreiben </t>
-  </si>
-  <si>
-    <t>write</t>
-  </si>
-  <si>
-    <t>scribe</t>
-  </si>
-  <si>
-    <t>garage</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+  <si>
+    <t>plant</t>
+  </si>
+  <si>
+    <t>Betrieb</t>
+  </si>
+  <si>
+    <t>subsidiary</t>
+  </si>
+  <si>
+    <t>Tochterunternehmen</t>
+  </si>
+  <si>
+    <t>den Betrieb aufnehmen</t>
+  </si>
+  <si>
+    <t>ein Unternehmen gründen</t>
+  </si>
+  <si>
+    <t>ein Unternehmen einrichten</t>
+  </si>
+  <si>
+    <t>verändern in</t>
+  </si>
+  <si>
+    <t>verschmelzen mit</t>
+  </si>
+  <si>
+    <t>contribution</t>
+  </si>
+  <si>
+    <t>Beitrag</t>
+  </si>
+  <si>
+    <t>liefern</t>
+  </si>
+  <si>
+    <t>assembly</t>
+  </si>
+  <si>
+    <t>Versammlung</t>
+  </si>
+  <si>
+    <t>final assembly</t>
+  </si>
+  <si>
+    <t>Endmontage</t>
+  </si>
+  <si>
+    <t>to employ</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>Arbeitsnehmer</t>
+  </si>
+  <si>
+    <t>to establish</t>
+  </si>
+  <si>
+    <t>herstellen</t>
+  </si>
+  <si>
+    <t>on average</t>
+  </si>
+  <si>
+    <t>im Durchschnitt</t>
+  </si>
+  <si>
+    <t>manufacturer</t>
+  </si>
+  <si>
+    <t>Produzent</t>
+  </si>
+  <si>
+    <t>the largest manufacturer in the world</t>
+  </si>
+  <si>
+    <t>der größte Produzent der Welt</t>
+  </si>
+  <si>
+    <t>to establish a lead over sb.</t>
+  </si>
+  <si>
+    <t>ein Führung herstellen</t>
+  </si>
+  <si>
+    <t>competitor</t>
+  </si>
+  <si>
+    <t>competitive</t>
+  </si>
+  <si>
+    <t>wettbewerbsfähig</t>
+  </si>
+  <si>
+    <t>begin operation</t>
+  </si>
+  <si>
+    <t>found a company</t>
+  </si>
+  <si>
+    <t>set up an enterprise</t>
+  </si>
+  <si>
+    <t>diversify into</t>
+  </si>
+  <si>
+    <t>merge with</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>jemanden beschäftigen</t>
+  </si>
+  <si>
+    <t>etwas aufbauen</t>
+  </si>
+  <si>
+    <t>assemble something</t>
+  </si>
+  <si>
+    <t>Konkurrent</t>
+  </si>
+  <si>
+    <t>head office</t>
+  </si>
+  <si>
+    <t>Zentrale</t>
+  </si>
+  <si>
+    <t>headquarters</t>
+  </si>
+  <si>
+    <t>Hauptsitz</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>Umsatz</t>
+  </si>
+  <si>
+    <t>to expand rapdidly</t>
+  </si>
+  <si>
+    <t>to grow quickly</t>
+  </si>
+  <si>
+    <t>schnell wachsen</t>
+  </si>
+  <si>
+    <t>sales and marketing</t>
+  </si>
+  <si>
+    <t>Vertrieb</t>
+  </si>
+  <si>
+    <t>department</t>
+  </si>
+  <si>
+    <t>Abteilung</t>
+  </si>
+  <si>
+    <t>I work in the sales department.</t>
+  </si>
+  <si>
+    <t>Absatzabteilung</t>
+  </si>
+  <si>
+    <t>I work in sales.</t>
+  </si>
+  <si>
+    <t>ich arbeite im Vertrieb</t>
+  </si>
+  <si>
+    <t>to be located in…</t>
+  </si>
+  <si>
+    <t>ansässig in</t>
+  </si>
+  <si>
+    <t>enable</t>
+  </si>
+  <si>
+    <t>aktiviert</t>
+  </si>
+  <si>
+    <t>disable</t>
+  </si>
+  <si>
+    <t>deaktiviert</t>
+  </si>
+  <si>
+    <t>Geräte</t>
+  </si>
+  <si>
+    <t>devices</t>
+  </si>
+  <si>
+    <t>Anfrage</t>
+  </si>
+  <si>
+    <t>Datenmenge</t>
+  </si>
+  <si>
+    <t>traffic</t>
+  </si>
+  <si>
+    <t>Nachricht</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>Einheit</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>Speicher</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>steuern</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>Geschwindigkeit</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>Zugang</t>
+  </si>
+  <si>
+    <t>access</t>
+  </si>
+  <si>
+    <t>gleich</t>
+  </si>
+  <si>
+    <t>equal</t>
+  </si>
+  <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>Betriebssystem</t>
+  </si>
+  <si>
+    <t>operating system</t>
+  </si>
+  <si>
+    <t>Daten</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>sichern</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>Festplatte</t>
+  </si>
+  <si>
+    <t>hard drive</t>
+  </si>
+  <si>
+    <t>Tastatur</t>
+  </si>
+  <si>
+    <t>keyboard</t>
+  </si>
+  <si>
+    <t>Maus</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>Drucker</t>
+  </si>
+  <si>
+    <t>printer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="2">
@@ -82,11 +357,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Stand." xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -385,15 +663,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -401,23 +683,393 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="27" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -431,7 +1083,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
@@ -443,7 +1095,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
